--- a/Data/EC/NIT-8060139448.xlsx
+++ b/Data/EC/NIT-8060139448.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3B1D21-6616-45DB-943F-B2CFD567D311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{923068B4-60EC-44B7-888E-44E8F9C53760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66B801AD-AE42-4F3B-B258-094DB685C3D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{36A11F6C-A949-47A1-9B7C-2C0E0046DCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -170,9 +170,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -185,7 +183,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -334,29 +334,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,13 +375,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,7 +437,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B122B310-2110-65DE-B513-4050E2B9A787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B74AB9-E0C9-8AAF-41FC-370F2860D1F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC3A4B8-7A3A-40D5-831A-1B68FC9EA9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9D7672-242D-4BCD-8C4C-826BF5EDB0B7}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -808,49 +811,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -858,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -874,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="6">
         <v>8060139448</v>
       </c>
@@ -890,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="7">
         <v>15215</v>
       </c>
@@ -959,24 +962,24 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>15215</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1554000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="H21" s="1" t="s">
         <v>21</v>
       </c>
@@ -984,10 +987,10 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="27"/>
       <c r="H22" s="1" t="s">
         <v>22</v>
       </c>
